--- a/biology/Botanique/Quercus_nigra/Quercus_nigra.xlsx
+++ b/biology/Botanique/Quercus_nigra/Quercus_nigra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne noir, chêne d'eau ou Quercus nigra (water oak en anglais), connu comme le chêne gris en Louisiane, est une espèce d'arbres du sous-genre Quercus et de la section Lobatae. Cette espèce est présente dans le Sud-Est des États-Unis. Ce chêne a une courte durée de vie (moins d'un siècle) une taille moyenne (30 m max.) et il faut attendre environ 20 ans pour les premières floraisons et fructifications. Il produit alors d'abondantes glandaies presque chaque année.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est trouvé naturellement du sud de l'État du Delaware au sud du Maryland, Virginie et au piémont de la Caroline du Nord, dans toute la Caroline du Sud, dans la plus grande partie de la Géorgie (hormis dans les montagnes des Appalaches), dans tout l'Alabama, le Mississippi, le centre de la Floride, à l'ouest de la Louisiane et à l'est du Texas. De là au Nord-Est du Missouri dont dans l'Arkansas, l'Est de l'Oklahoma et certaines parties du Tennessee, et dans l'extrême Sud-Ouest du Kentucky, il est présent dans les basses terres et jusqu'à 450 m d'altitude.
 </t>
@@ -542,7 +556,9 @@
           <t>Autres dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Spotted oak,
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De taille moyenne, ce chêne peut atteindre une trentaine de mètres de hauteur (pour un diamètre de tronc d'environ un mètre)
 Écorce : Les jeunes arbres ont une écorce brune et lisse (verdâtre quand elle est couverte de microalgues) qui devient peu à peu gris-noir avec des crêtes écailleuses rugueuses quand l'arbre arrive à maturité.
@@ -614,7 +632,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On attribue au Chêne d'eau des fonctions écologique et services écosystémiques proches de celles des saules et peupliers ou aulnes des zones humides, sauf qu'il fournit à divers animaux une nourriture différente, sous forme de glands (petits mais nombreux) ; ces glands sont des aliments notamment appréciés du cerf de Virginie, de l'écureuil gris, du raton laveur, du Dindon sauvage, du canard colvert du canard des bois ou encore du Colin de Virginie et de nombreux rongeurs. 
 En hiver, les cerfs broutent aussi les bourgeons et les jeunes rameaux de cet arbre.
@@ -622,8 +642,8 @@
 Il pousse dans les sols sableux, les argiles rouges et dans les zones tourbeuses marécageuses dans les zones alluviales. 
 En raison de sa capacité à croître et se reproduire rapidement, le chêne d'eau sont souvent l'une des espèces les plus abondantes dans les peuplements arborés des régions qui lui conviennent, mais sa durée de vie 60 à 80 ans est moindre (jusqu'à 10 fois moindre) que celle d'autres chênes croissant plus lentement. 
 En présence d'arbres plus grands que lui ou cachant la lumière, il est mauvais compétiteur ;
-C'est une des espèces bioaccumulatrices qui peut jouer un rôle dans la concentration et diffusion du plomb (source de saturnisme animal et humain) par exemple émis par les raffineries ou la pollution automobile (plomb tétraéthyle)[1]. Le plomb n'est pas retrouvé dans les glands, mais il est accumulé dans les cernes du bois d'où il pourra être extrait par les champignons saproxylophages et les communautés animales saproxylophages (insectes, larves d'insectes et limaces vivant dans le bois mort principalement, et certains de leurs prédateurs)[1]. Le plomb environnemental est aussi trouvé dans les feuilles[1].
-Le gland de ce chêne est dit « récalcitrant » et « à germination différée » c'est-à-dire qu'il ne germe pas facilement, ou en fonction de conditions mal comprises, mais qui font l'objet d'études en laboratoire ou in situ[2],[3],[4].
+C'est une des espèces bioaccumulatrices qui peut jouer un rôle dans la concentration et diffusion du plomb (source de saturnisme animal et humain) par exemple émis par les raffineries ou la pollution automobile (plomb tétraéthyle). Le plomb n'est pas retrouvé dans les glands, mais il est accumulé dans les cernes du bois d'où il pourra être extrait par les champignons saproxylophages et les communautés animales saproxylophages (insectes, larves d'insectes et limaces vivant dans le bois mort principalement, et certains de leurs prédateurs). Le plomb environnemental est aussi trouvé dans les feuilles.
+Le gland de ce chêne est dit « récalcitrant » et « à germination différée » c'est-à-dire qu'il ne germe pas facilement, ou en fonction de conditions mal comprises, mais qui font l'objet d'études en laboratoire ou in situ.
 </t>
         </is>
       </c>
@@ -652,7 +672,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dans le Sud-Est des États-Unis, le Chêne de l'eau est fréquemment utilisé pour 
 la renaturation de cours d'eau, et la restauration de forêts alluviales de feuillus, par génie écologique sur des terres dégradées ou défrichées pour ou par l'agriculture ou la sylviculture de résineux.
@@ -684,7 +706,9 @@
           <t>Hybridations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut s'hybrider avec 
 Quercus falcata ;
@@ -722,10 +746,12 @@
           <t>Maladies et interactions durables avec d'autres espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être affecté par de nombreux parasites et notamment par une forme de rouille (Cronartium[5]) et une guilde d'espèces mineuses qui peuvent provoquer la chute prématurée des feuilles touchées (ce qui pourrait être une défense de l'arbre contre certains prédateurs ou simplement et plutôt une réponse de la feuille à des dommages trop important pour sa survie)[6].
-Il peut être aussi dans certaines circonstances (forêt à canopée fermée par l'absence de chablis ou de coupes récentes) fortement colonisé par une espèce de gui (Phoradendron flavescens), qui semble pouvoir contribuer à l'affaiblir, voire être un facteur de mortalité[7] ; le chêne d'eau est l'espèce la plus utilisée par ce gui pour son cycle de vie, peut être en raison de l'écorce particulièrement fine de ce chêne, qui permettrait au gui de l'infester plus facilement[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être affecté par de nombreux parasites et notamment par une forme de rouille (Cronartium) et une guilde d'espèces mineuses qui peuvent provoquer la chute prématurée des feuilles touchées (ce qui pourrait être une défense de l'arbre contre certains prédateurs ou simplement et plutôt une réponse de la feuille à des dommages trop important pour sa survie).
+Il peut être aussi dans certaines circonstances (forêt à canopée fermée par l'absence de chablis ou de coupes récentes) fortement colonisé par une espèce de gui (Phoradendron flavescens), qui semble pouvoir contribuer à l'affaiblir, voire être un facteur de mortalité ; le chêne d'eau est l'espèce la plus utilisée par ce gui pour son cycle de vie, peut être en raison de l'écorce particulièrement fine de ce chêne, qui permettrait au gui de l'infester plus facilement.
 </t>
         </is>
       </c>
